--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23229"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE081F5D-A880-4A07-97A5-3145A2B75D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC500E3-A719-46A3-910F-2B4861BC73BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="125">
   <si>
     <t>改定履歴</t>
   </si>
@@ -668,16 +668,19 @@
     <t>datetime</t>
   </si>
   <si>
+    <t>current_timestanp</t>
+  </si>
+  <si>
     <t>更新日時</t>
   </si>
   <si>
-    <t>modified</t>
+    <t>updated_at</t>
   </si>
   <si>
-    <t>current_timestanp</t>
+    <t>current_timestanp on update current_timestanp</t>
   </si>
   <si>
-    <t>members</t>
+    <t>users_rooms</t>
   </si>
   <si>
     <t>usersとroomsを結ぶテーブル</t>
@@ -788,7 +791,7 @@
     <t>担当者ID</t>
   </si>
   <si>
-    <t>admin_id</t>
+    <t>task_manager_id</t>
   </si>
   <si>
     <t>タスク内容</t>
@@ -800,7 +803,7 @@
     <t>期限日時</t>
   </si>
   <si>
-    <t>limited_at</t>
+    <t>deadline</t>
   </si>
   <si>
     <t>完了フラグ</t>
@@ -810,6 +813,9 @@
   </si>
   <si>
     <t>1:完了</t>
+  </si>
+  <si>
+    <t>modified</t>
   </si>
 </sst>
 </file>
@@ -30471,8 +30477,8 @@
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30792,7 +30798,9 @@
         <v>74</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="H13" s="18" t="s">
         <v>53</v>
       </c>
@@ -30807,17 +30815,17 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>74</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>53</v>
@@ -30844,7 +30852,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -30861,7 +30869,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -30944,7 +30952,7 @@
         <v>53</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="20"/>
@@ -30956,10 +30964,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>52</v>
@@ -30972,7 +30980,7 @@
         <v>53</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -30984,16 +30992,18 @@
         <v>18</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="H22" s="18" t="s">
         <v>53</v>
       </c>
@@ -31019,7 +31029,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -31036,7 +31046,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -31103,10 +31113,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>52</v>
@@ -31133,10 +31143,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>52</v>
@@ -31149,7 +31159,7 @@
         <v>53</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
@@ -31161,10 +31171,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>52</v>
@@ -31177,7 +31187,7 @@
         <v>53</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
@@ -31189,10 +31199,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>58</v>
@@ -31215,10 +31225,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>58</v>
@@ -31239,10 +31249,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>71</v>
@@ -31259,7 +31269,7 @@
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -31269,10 +31279,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>71</v>
@@ -31289,7 +31299,7 @@
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
@@ -31338,7 +31348,9 @@
         <v>74</v>
       </c>
       <c r="F36" s="17"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="H36" s="18" t="s">
         <v>53</v>
       </c>
@@ -31353,17 +31365,17 @@
         <v>33</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>74</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>53</v>
@@ -31390,7 +31402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
@@ -31407,7 +31419,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
@@ -31474,10 +31486,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>52</v>
@@ -31504,10 +31516,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>52</v>
@@ -31520,7 +31532,7 @@
         <v>53</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
@@ -31532,10 +31544,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>52</v>
@@ -31548,7 +31560,7 @@
         <v>53</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
@@ -31560,10 +31572,10 @@
         <v>42</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>52</v>
@@ -31576,7 +31588,7 @@
         <v>53</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
@@ -31588,10 +31600,10 @@
         <v>43</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>58</v>
@@ -31612,10 +31624,10 @@
         <v>44</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>58</v>
@@ -31675,7 +31687,9 @@
         <v>74</v>
       </c>
       <c r="F50" s="16"/>
-      <c r="G50" s="15"/>
+      <c r="G50" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="H50" s="18" t="s">
         <v>53</v>
       </c>
@@ -31690,17 +31704,17 @@
         <v>47</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>74</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>53</v>
@@ -31727,7 +31741,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" s="31"/>
       <c r="D53" s="31"/>
@@ -31744,7 +31758,7 @@
         <v>8</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
@@ -31811,10 +31825,10 @@
         <v>53</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>52</v>
@@ -31841,10 +31855,10 @@
         <v>54</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>52</v>
@@ -31857,7 +31871,7 @@
         <v>53</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
@@ -31869,10 +31883,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>52</v>
@@ -31885,7 +31899,7 @@
         <v>53</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
@@ -31897,10 +31911,10 @@
         <v>56</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>52</v>
@@ -31913,7 +31927,7 @@
         <v>53</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
@@ -31925,10 +31939,10 @@
         <v>57</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>52</v>
@@ -31941,7 +31955,7 @@
         <v>53</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
@@ -31953,10 +31967,10 @@
         <v>58</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>58</v>
@@ -31979,10 +31993,10 @@
         <v>59</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>74</v>
@@ -32001,10 +32015,10 @@
         <v>60</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>71</v>
@@ -32021,7 +32035,7 @@
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15" customHeight="1">
@@ -32070,7 +32084,9 @@
         <v>74</v>
       </c>
       <c r="F66" s="16"/>
-      <c r="G66" s="20"/>
+      <c r="G66" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="H66" s="18" t="s">
         <v>53</v>
       </c>
@@ -32085,17 +32101,17 @@
         <v>63</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>74</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>53</v>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23229"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC500E3-A719-46A3-910F-2B4861BC73BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52581E3B-3996-4AE4-AA67-A154483507AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="122">
   <si>
     <t>改定履歴</t>
   </si>
@@ -596,7 +596,7 @@
     <t>ユーザーID</t>
   </si>
   <si>
-    <t>user_id</t>
+    <t>id</t>
   </si>
   <si>
     <t>int</t>
@@ -614,7 +614,7 @@
     <t>表示名</t>
   </si>
   <si>
-    <t>user_name</t>
+    <t>name</t>
   </si>
   <si>
     <t>varchar</t>
@@ -623,7 +623,7 @@
     <t>自己紹介文</t>
   </si>
   <si>
-    <t>user_discription</t>
+    <t>discription</t>
   </si>
   <si>
     <t>携帯電話番号</t>
@@ -686,6 +686,9 @@
     <t>usersとroomsを結ぶテーブル</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
     <t>PK/FK</t>
   </si>
   <si>
@@ -719,25 +722,22 @@
     <t>更新者ID</t>
   </si>
   <si>
-    <t>uploaded_user_id</t>
+    <t>updated_user_id</t>
   </si>
   <si>
     <t>ルーム名</t>
   </si>
   <si>
-    <t>room_name</t>
-  </si>
-  <si>
     <t>ルーム概要</t>
   </si>
   <si>
-    <t>room_description</t>
+    <t>description</t>
   </si>
   <si>
     <t>ファイル送信許可フラグ</t>
   </si>
   <si>
-    <t>is_sendable_file</t>
+    <t>is_file_sendable</t>
   </si>
   <si>
     <t>0:ファイル送信禁止</t>
@@ -761,13 +761,13 @@
     <t>投稿ID</t>
   </si>
   <si>
-    <t>post_id</t>
+    <t>uploaded_user_id</t>
   </si>
   <si>
     <t>投稿内容</t>
   </si>
   <si>
-    <t>post_contents</t>
+    <t>contents</t>
   </si>
   <si>
     <t>添付ファイル名</t>
@@ -785,19 +785,13 @@
     <t>タスクID</t>
   </si>
   <si>
-    <t>task_id</t>
-  </si>
-  <si>
     <t>担当者ID</t>
   </si>
   <si>
-    <t>task_manager_id</t>
+    <t>manager_id</t>
   </si>
   <si>
     <t>タスク内容</t>
-  </si>
-  <si>
-    <t>task_contents</t>
   </si>
   <si>
     <t>期限日時</t>
@@ -813,9 +807,6 @@
   </si>
   <si>
     <t>1:完了</t>
-  </si>
-  <si>
-    <t>modified</t>
   </si>
 </sst>
 </file>
@@ -1016,11 +1007,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -30126,7 +30117,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="K8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -30148,15 +30139,15 @@
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -30167,15 +30158,15 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
@@ -30186,18 +30177,18 @@
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30228,11 +30219,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30260,11 +30251,11 @@
         <v>26</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30288,11 +30279,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30314,11 +30305,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30346,11 +30337,11 @@
       <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30372,11 +30363,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30400,11 +30391,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30426,11 +30417,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30454,8 +30445,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30477,8 +30468,8 @@
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30499,13 +30490,13 @@
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -30516,13 +30507,13 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -30531,16 +30522,16 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30573,7 +30564,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -30603,7 +30594,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30629,7 +30620,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30653,7 +30644,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30677,7 +30668,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30701,7 +30692,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30727,7 +30718,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30753,7 +30744,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30783,7 +30774,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30809,7 +30800,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30835,17 +30826,17 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
@@ -30856,13 +30847,13 @@
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
@@ -30873,13 +30864,13 @@
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
@@ -30888,16 +30879,16 @@
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -30930,7 +30921,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="5">
         <f>ROW()-4</f>
         <v>16</v>
@@ -30939,7 +30930,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>52</v>
@@ -30952,22 +30943,22 @@
         <v>53</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="5">
         <f t="shared" ref="B21:B22" si="1">ROW()-4</f>
         <v>17</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>52</v>
@@ -30980,22 +30971,22 @@
         <v>53</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>74</v>
@@ -31012,51 +31003,51 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
@@ -31065,16 +31056,16 @@
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="A27" s="25"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
@@ -31107,16 +31098,16 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
-      <c r="A28" s="25"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="5">
         <f t="shared" ref="B28:B37" si="2">ROW()-4</f>
         <v>24</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>52</v>
@@ -31137,16 +31128,16 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
-      <c r="A29" s="25"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>52</v>
@@ -31159,22 +31150,22 @@
         <v>53</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
-      <c r="A30" s="25"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="5">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>52</v>
@@ -31187,22 +31178,22 @@
         <v>53</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
-      <c r="A31" s="25"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="5">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>58</v>
@@ -31219,7 +31210,7 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
-      <c r="A32" s="25"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="5">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -31243,7 +31234,7 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
-      <c r="A33" s="25"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="5">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -31260,7 +31251,7 @@
       <c r="F33" s="16">
         <v>1</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="25">
         <v>1</v>
       </c>
       <c r="H33" s="18" t="s">
@@ -31273,7 +31264,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
-      <c r="A34" s="25"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -31303,7 +31294,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
-      <c r="A35" s="25"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="5">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -31333,7 +31324,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
-      <c r="A36" s="25"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="5">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -31359,7 +31350,7 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
-      <c r="A37" s="25"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="5">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -31385,17 +31376,17 @@
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="3" t="s">
@@ -31406,13 +31397,13 @@
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
@@ -31423,13 +31414,13 @@
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
       <c r="A41" s="3" t="s">
@@ -31438,16 +31429,16 @@
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
-      <c r="A42" s="25"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="2" t="s">
         <v>12</v>
       </c>
@@ -31480,7 +31471,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
-      <c r="A43" s="25"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="5">
         <f t="shared" ref="B43:B51" si="3">ROW()-4</f>
         <v>39</v>
@@ -31489,7 +31480,7 @@
         <v>105</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>52</v>
@@ -31510,16 +31501,16 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
-      <c r="A44" s="25"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>52</v>
@@ -31532,22 +31523,22 @@
         <v>53</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
-      <c r="A45" s="25"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="5">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>52</v>
@@ -31560,22 +31551,22 @@
         <v>53</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
-      <c r="A46" s="25"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="5">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>52</v>
@@ -31588,13 +31579,13 @@
         <v>53</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
-      <c r="A47" s="25"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="5">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -31618,7 +31609,7 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
-      <c r="A48" s="25"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="5">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -31642,7 +31633,7 @@
       <c r="K48" s="15"/>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1">
-      <c r="A49" s="25"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="5">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -31672,7 +31663,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1">
-      <c r="A50" s="25"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="5">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -31698,7 +31689,7 @@
       <c r="K50" s="15"/>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1">
-      <c r="A51" s="25"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="5">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -31724,17 +31715,17 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1">
       <c r="A53" s="3" t="s">
@@ -31745,13 +31736,13 @@
       </c>
       <c r="C53" s="31"/>
       <c r="D53" s="31"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1">
       <c r="A54" s="3" t="s">
@@ -31762,13 +31753,13 @@
       </c>
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1">
       <c r="A55" s="3" t="s">
@@ -31777,16 +31768,16 @@
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="A56" s="25"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="2" t="s">
         <v>12</v>
       </c>
@@ -31819,7 +31810,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1">
-      <c r="A57" s="25"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="5">
         <f t="shared" ref="B57:B67" si="4">ROW()-4</f>
         <v>53</v>
@@ -31828,7 +31819,7 @@
         <v>113</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>52</v>
@@ -31849,16 +31840,16 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="A58" s="25"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="5">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>52</v>
@@ -31871,22 +31862,22 @@
         <v>53</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="A59" s="25"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="5">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>52</v>
@@ -31899,22 +31890,22 @@
         <v>53</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="A60" s="25"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="5">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="C60" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>52</v>
@@ -31927,22 +31918,22 @@
         <v>53</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="A61" s="25"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="5">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>52</v>
@@ -31955,22 +31946,22 @@
         <v>53</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="A62" s="25"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="5">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>58</v>
@@ -31987,16 +31978,16 @@
       <c r="K62" s="15"/>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1">
-      <c r="A63" s="25"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="5">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>74</v>
@@ -32009,16 +32000,16 @@
       <c r="K63" s="15"/>
     </row>
     <row r="64" spans="1:11" ht="15" customHeight="1">
-      <c r="A64" s="25"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="5">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>71</v>
@@ -32035,11 +32026,11 @@
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15" customHeight="1">
-      <c r="A65" s="25"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="5">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -32069,7 +32060,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="15" customHeight="1">
-      <c r="A66" s="25"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="5">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -32095,7 +32086,7 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1">
-      <c r="A67" s="25"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="5">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -32104,7 +32095,7 @@
         <v>76</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>74</v>
@@ -32121,238 +32112,238 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="15">
